--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3844529.809881202</v>
+        <v>3842278.991495308</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.582836235</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>282.5691437835304</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>155.886038567534</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>155.3197306044665</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>44.90925090849413</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>362.4006936231285</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>203.1609600883623</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.7498680634315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>5.983388191318943</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>358.5239983301257</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.31590541686237</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>139.6528551206849</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>203.406813219203</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>251.4434670897033</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004736</v>
+        <v>35.19569619650092</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1822,7 +1822,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>147.0633545968143</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2059,16 +2059,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>235.9955072668616</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>57.76865805628435</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>203.4068132192031</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>203.1897060792162</v>
       </c>
     </row>
     <row r="23">
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>64.14647130913956</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>270.0697021486462</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>74.75769145492382</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>121.4295444840924</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247564</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>203.4068132192032</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>204.1149264341222</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C34" t="n">
-        <v>138.8504880697912</v>
+        <v>47.33797394444939</v>
       </c>
       <c r="D34" t="n">
-        <v>117.2674734811324</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.53581964121072</v>
+        <v>60.53581964121074</v>
       </c>
       <c r="S34" t="n">
         <v>161.3726923026053</v>
@@ -3241,7 +3241,7 @@
         <v>191.1526162473326</v>
       </c>
       <c r="U34" t="n">
-        <v>257.8155051767763</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V34" t="n">
         <v>223.7413102949914</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534537</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3424,25 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C37" t="n">
-        <v>51.19843204834081</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>117.9335065897425</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3586818854842</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I37" t="n">
-        <v>67.95608738100148</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>60.53581964121072</v>
+        <v>60.53581964121074</v>
       </c>
       <c r="S37" t="n">
         <v>161.3726923026053</v>
@@ -3478,7 +3478,7 @@
         <v>191.1526162473326</v>
       </c>
       <c r="U37" t="n">
-        <v>257.8155051767763</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V37" t="n">
         <v>223.7413102949914</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534537</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247564</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,22 +3661,22 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>66.92981955690766</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E40" t="n">
-        <v>51.19843204834069</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3586818854842</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>67.95608738100148</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>60.53581964121072</v>
+        <v>60.53581964121074</v>
       </c>
       <c r="S40" t="n">
         <v>161.3726923026053</v>
@@ -3715,7 +3715,7 @@
         <v>191.1526162473326</v>
       </c>
       <c r="U40" t="n">
-        <v>257.8155051767763</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V40" t="n">
         <v>223.7413102949914</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534537</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C43" t="n">
-        <v>138.8504880697912</v>
+        <v>9.588951692821727</v>
       </c>
       <c r="D43" t="n">
-        <v>61.44461123685948</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F43" t="n">
         <v>117.0247149940946</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H43" t="n">
-        <v>116.3586818854841</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>60.53581964121074</v>
       </c>
       <c r="S43" t="n">
         <v>161.3726923026053</v>
@@ -3961,7 +3961,7 @@
         <v>258.1266653077544</v>
       </c>
       <c r="X43" t="n">
-        <v>197.3133223602005</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>190.1883203232582</v>
@@ -3992,10 +3992,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292629</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396202</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247759</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734101331</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,13 +4135,13 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C46" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>137.6294752301916</v>
       </c>
       <c r="H46" t="n">
-        <v>28.70662586402914</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>67.95608738100159</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>60.53581964121088</v>
+        <v>60.53581964121074</v>
       </c>
       <c r="S46" t="n">
         <v>161.3726923026053</v>
@@ -4192,7 +4192,7 @@
         <v>257.8155051767762</v>
       </c>
       <c r="V46" t="n">
-        <v>223.7413102949914</v>
+        <v>153.0416546217073</v>
       </c>
       <c r="W46" t="n">
         <v>258.1266653077544</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1626.717708340415</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1257.755191400004</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>899.4894927932532</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>513.7012401950089</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>506.7557394458055</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>492.8323353843964</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4340,7 +4340,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674651</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404537</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>2013.317548404537</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>2013.317548404537</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942401</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942401</v>
+        <v>211.4036268380756</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.981643776797</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D5" t="n">
-        <v>819.7159451700466</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>433.9276925718023</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177354</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757142</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.54400078133</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.6442689908469</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.083928634017</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936052</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685473</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097701</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205144</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.28885893503</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.82310067395</v>
+        <v>1300.338121270757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,10 +4893,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5045,13 +5045,13 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1390.197710791128</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>1923.729615463053</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N11" t="n">
-        <v>2602.177459903277</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232732</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
         <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
         <v>95.56103444839442</v>
@@ -5197,13 +5197,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5218,31 +5218,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1015.408799357142</v>
+        <v>909.9743422936184</v>
       </c>
       <c r="W13" t="n">
-        <v>725.9916293201816</v>
+        <v>620.5571722566579</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221642</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>392.5676213586405</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>351.301436796792</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>685.1208104866384</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1549.639626139993</v>
+        <v>1676.07730320813</v>
       </c>
       <c r="M14" t="n">
-        <v>2528.189928969822</v>
+        <v>2209.609207880054</v>
       </c>
       <c r="N14" t="n">
-        <v>3507.942201196468</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O14" t="n">
-        <v>4010.914672075805</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P14" t="n">
         <v>4405.689038432984</v>
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
@@ -5355,10 +5355,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
         <v>794.2006632320242</v>
@@ -5373,22 +5373,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C16" t="n">
         <v>95.56103444839442</v>
@@ -5434,10 +5434,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1920.79225782541</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1729.106373652236</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1507.339758221762</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384227</v>
+        <v>1218.236891347406</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>963.5524031415189</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>674.1352331045584</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221643</v>
+        <v>446.145682206541</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5516,16 +5516,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
         <v>3482.142110232732</v>
@@ -5540,19 +5540,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
         <v>487.9678785494859</v>
@@ -5583,7 +5583,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>561.5038042865474</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
         <v>95.56103444839442</v>
@@ -5677,7 +5677,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>561.5038042865474</v>
       </c>
     </row>
     <row r="20">
@@ -5741,37 +5741,37 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D22" t="n">
         <v>95.56103444839442</v>
@@ -5911,7 +5911,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5929,31 +5929,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437385</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>414.6138567886371</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5972,10 +5972,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
@@ -5987,52 +5987,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1617.665844847779</v>
       </c>
       <c r="M23" t="n">
-        <v>2782.232616025903</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N23" t="n">
-        <v>3573.001456870721</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
@@ -6066,40 +6066,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>307.245397410082</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>307.245397410082</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>307.245397410082</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>307.245397410082</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>160.3554499121717</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>160.3554499121717</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6145,10 +6145,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,16 +6160,16 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
         <v>1764.65758193153</v>
@@ -6178,19 +6178,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208124</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201815</v>
+        <v>709.6864413838518</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221641</v>
+        <v>709.6864413838518</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.209499278634</v>
+        <v>488.8938622403217</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
@@ -6212,7 +6212,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
@@ -6224,28 +6224,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2383.057343890769</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
@@ -6303,13 +6303,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6321,22 +6321,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>558.6274977408367</v>
+      </c>
+      <c r="C28" t="n">
+        <v>389.6913148129298</v>
+      </c>
+      <c r="D28" t="n">
+        <v>389.6913148129298</v>
+      </c>
+      <c r="E28" t="n">
+        <v>241.7782212305366</v>
+      </c>
+      <c r="F28" t="n">
+        <v>241.7782212305366</v>
+      </c>
+      <c r="G28" t="n">
+        <v>241.7782212305366</v>
+      </c>
+      <c r="H28" t="n">
         <v>95.56103444839442</v>
       </c>
-      <c r="C28" t="n">
+      <c r="I28" t="n">
         <v>95.56103444839442</v>
       </c>
-      <c r="D28" t="n">
-        <v>95.56103444839442</v>
-      </c>
-      <c r="E28" t="n">
-        <v>95.56103444839442</v>
-      </c>
-      <c r="F28" t="n">
-        <v>95.56103444839454</v>
-      </c>
-      <c r="G28" t="n">
-        <v>95.56103444839454</v>
-      </c>
-      <c r="H28" t="n">
-        <v>95.56103444839454</v>
-      </c>
-      <c r="I28" t="n">
-        <v>95.56103444839454</v>
-      </c>
       <c r="J28" t="n">
-        <v>140.6836668953301</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6397,7 +6397,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
@@ -6418,16 +6418,16 @@
         <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783407</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413801</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="X28" t="n">
-        <v>391.8664332433627</v>
+        <v>681.283603280324</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.0738540998326</v>
+        <v>558.6274977408367</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277727</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>785.665188117619</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366027</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>1941.005908766399</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O29" t="n">
-        <v>4010.914672075805</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
         <v>4653.975400188666</v>
@@ -6488,25 +6488,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973178</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161908</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549396</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494841</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763691</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089872</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468547</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N30" t="n">
         <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.961311426848</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902951</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.10246054955</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142066</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635546</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313401</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447817</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216074</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517386</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6634,37 +6634,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437385</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201815</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221641</v>
+        <v>413.6792907735792</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.209499278634</v>
+        <v>192.8867116300491</v>
       </c>
     </row>
     <row r="32">
@@ -6692,34 +6692,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277727</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>785.665188117619</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2628.734306600802</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>3175.513123659583</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3678.48559453892</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6768,7 +6768,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6777,16 +6777,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390133</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193603</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320255</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
         <v>1715.000032008795</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>472.472828938312</v>
+        <v>472.4728289383118</v>
       </c>
       <c r="C34" t="n">
-        <v>332.2198106859976</v>
+        <v>424.6566936408882</v>
       </c>
       <c r="D34" t="n">
-        <v>213.7678172707122</v>
+        <v>303.223218904145</v>
       </c>
       <c r="E34" t="n">
-        <v>213.7678172707122</v>
+        <v>303.223218904145</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>303.223218904145</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6862,7 +6862,7 @@
         <v>400.8955892413028</v>
       </c>
       <c r="L34" t="n">
-        <v>745.5677573883471</v>
+        <v>745.567757388347</v>
       </c>
       <c r="M34" t="n">
         <v>1117.837172686444</v>
@@ -6871,19 +6871,19 @@
         <v>1487.357919090857</v>
       </c>
       <c r="O34" t="n">
-        <v>1814.799887709819</v>
+        <v>1814.799887709818</v>
       </c>
       <c r="P34" t="n">
-        <v>2075.519757842027</v>
+        <v>2075.519757842026</v>
       </c>
       <c r="Q34" t="n">
-        <v>2181.24242369309</v>
+        <v>2181.242423693089</v>
       </c>
       <c r="R34" t="n">
         <v>2120.09513112621</v>
       </c>
       <c r="S34" t="n">
-        <v>1957.092411628629</v>
+        <v>1957.092411628628</v>
       </c>
       <c r="T34" t="n">
         <v>1764.008960873747</v>
@@ -6892,16 +6892,16 @@
         <v>1503.589258674984</v>
       </c>
       <c r="V34" t="n">
-        <v>1277.58793514469</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W34" t="n">
-        <v>1016.853929783322</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X34" t="n">
-        <v>817.5475435608967</v>
+        <v>817.5475435608964</v>
       </c>
       <c r="Y34" t="n">
-        <v>625.4381290929591</v>
+        <v>625.4381290929588</v>
       </c>
     </row>
     <row r="35">
@@ -6926,34 +6926,34 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>318.2383484401523</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>972.9616805754516</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1837.480496228806</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2816.030799058634</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q35" t="n">
         <v>4719.034655862919</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973176</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161906</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549394</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494839</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763689</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7014,52 +7014,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N36" t="n">
         <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.961311426848</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902951</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.10246054955</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142066</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635546</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313401</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447817</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216074</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487872</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517386</v>
       </c>
     </row>
     <row r="37">
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>472.4728289383116</v>
+        <v>472.4728289383114</v>
       </c>
       <c r="C37" t="n">
-        <v>420.7572410106947</v>
+        <v>332.2198106859971</v>
       </c>
       <c r="D37" t="n">
-        <v>420.7572410106947</v>
+        <v>332.2198106859971</v>
       </c>
       <c r="E37" t="n">
-        <v>420.7572410106947</v>
+        <v>213.0950565549441</v>
       </c>
       <c r="F37" t="n">
-        <v>420.7572410106947</v>
+        <v>213.0950565549441</v>
       </c>
       <c r="G37" t="n">
-        <v>281.7375690610062</v>
+        <v>213.0950565549441</v>
       </c>
       <c r="H37" t="n">
-        <v>164.2035469544565</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>168.7960365938782</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K37" t="n">
         <v>400.8955892413028</v>
       </c>
       <c r="L37" t="n">
-        <v>745.5677573883471</v>
+        <v>745.5677573883472</v>
       </c>
       <c r="M37" t="n">
         <v>1117.837172686444</v>
       </c>
       <c r="N37" t="n">
-        <v>1487.357919090857</v>
+        <v>1487.357919090858</v>
       </c>
       <c r="O37" t="n">
         <v>1814.799887709819</v>
@@ -7114,7 +7114,7 @@
         <v>2075.519757842027</v>
       </c>
       <c r="Q37" t="n">
-        <v>2181.242423693089</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R37" t="n">
         <v>2120.09513112621</v>
@@ -7123,7 +7123,7 @@
         <v>1957.092411628629</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.008960873747</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U37" t="n">
         <v>1503.589258674984</v>
@@ -7135,10 +7135,10 @@
         <v>1016.853929783321</v>
       </c>
       <c r="X37" t="n">
-        <v>817.5475435608963</v>
+        <v>817.5475435608964</v>
       </c>
       <c r="Y37" t="n">
-        <v>625.4381290929588</v>
+        <v>625.4381290929587</v>
       </c>
     </row>
     <row r="38">
@@ -7151,46 +7151,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074197</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.259539097266</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3944.053400686432</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188666</v>
@@ -7199,19 +7199,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973178</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161908</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549396</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494841</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763691</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089872</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468547</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426848</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902951</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.10246054955</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142066</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635546</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313401</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447817</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216074</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517386</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>472.4728289383115</v>
+        <v>472.4728289383111</v>
       </c>
       <c r="C40" t="n">
-        <v>472.4728289383115</v>
+        <v>404.8669505980003</v>
       </c>
       <c r="D40" t="n">
-        <v>472.4728289383115</v>
+        <v>283.4334758612571</v>
       </c>
       <c r="E40" t="n">
-        <v>420.7572410106947</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="F40" t="n">
-        <v>420.7572410106947</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="G40" t="n">
-        <v>281.7375690610062</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="H40" t="n">
         <v>164.2035469544565</v>
@@ -7330,13 +7330,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>168.7960365938783</v>
+        <v>168.7960365938782</v>
       </c>
       <c r="K40" t="n">
-        <v>400.895589241303</v>
+        <v>400.8955892413027</v>
       </c>
       <c r="L40" t="n">
-        <v>745.5677573883473</v>
+        <v>745.5677573883472</v>
       </c>
       <c r="M40" t="n">
         <v>1117.837172686445</v>
@@ -7351,7 +7351,7 @@
         <v>2075.519757842027</v>
       </c>
       <c r="Q40" t="n">
-        <v>2181.24242369309</v>
+        <v>2181.242423693089</v>
       </c>
       <c r="R40" t="n">
         <v>2120.09513112621</v>
@@ -7360,22 +7360,22 @@
         <v>1957.092411628629</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.008960873748</v>
+        <v>1764.008960873747</v>
       </c>
       <c r="U40" t="n">
-        <v>1503.589258674984</v>
+        <v>1503.589258674983</v>
       </c>
       <c r="V40" t="n">
         <v>1277.587935144689</v>
       </c>
       <c r="W40" t="n">
-        <v>1016.853929783321</v>
+        <v>1016.85392978332</v>
       </c>
       <c r="X40" t="n">
-        <v>817.5475435608962</v>
+        <v>817.5475435608957</v>
       </c>
       <c r="Y40" t="n">
-        <v>625.4381290929587</v>
+        <v>625.4381290929582</v>
       </c>
     </row>
     <row r="41">
@@ -7391,37 +7391,37 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>379.6167698340358</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>1034.340101969335</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.85891762269</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294614</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353396</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390133</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193603</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320255</v>
       </c>
       <c r="M42" t="n">
         <v>1241.476988454341</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7509,7 +7509,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7518,16 +7518,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
         <v>1346.568408282342</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>533.6201215051919</v>
+        <v>671.7792151607356</v>
       </c>
       <c r="C43" t="n">
-        <v>393.3671032528775</v>
+        <v>662.0934053700066</v>
       </c>
       <c r="D43" t="n">
-        <v>331.3018393772619</v>
+        <v>540.6599306332635</v>
       </c>
       <c r="E43" t="n">
-        <v>331.3018393772619</v>
+        <v>421.4300017264629</v>
       </c>
       <c r="F43" t="n">
-        <v>213.0950565549441</v>
+        <v>303.2232189041451</v>
       </c>
       <c r="G43" t="n">
-        <v>213.0950565549441</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,49 +7570,49 @@
         <v>168.7960365938782</v>
       </c>
       <c r="K43" t="n">
-        <v>400.8955892413029</v>
+        <v>400.8955892413027</v>
       </c>
       <c r="L43" t="n">
-        <v>745.5677573883472</v>
+        <v>745.567757388347</v>
       </c>
       <c r="M43" t="n">
-        <v>1117.837172686445</v>
+        <v>1117.837172686444</v>
       </c>
       <c r="N43" t="n">
-        <v>1487.357919090858</v>
+        <v>1487.357919090857</v>
       </c>
       <c r="O43" t="n">
-        <v>1814.799887709819</v>
+        <v>1814.799887709818</v>
       </c>
       <c r="P43" t="n">
-        <v>2075.519757842027</v>
+        <v>2075.519757842026</v>
       </c>
       <c r="Q43" t="n">
-        <v>2181.24242369309</v>
+        <v>2181.242423693089</v>
       </c>
       <c r="R43" t="n">
-        <v>2181.24242369309</v>
+        <v>2120.095131126209</v>
       </c>
       <c r="S43" t="n">
-        <v>2018.239704195509</v>
+        <v>1957.092411628628</v>
       </c>
       <c r="T43" t="n">
-        <v>1825.156253440628</v>
+        <v>1764.008960873747</v>
       </c>
       <c r="U43" t="n">
-        <v>1564.736551241864</v>
+        <v>1503.589258674983</v>
       </c>
       <c r="V43" t="n">
-        <v>1338.735227711569</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W43" t="n">
-        <v>1078.001222350201</v>
+        <v>1016.85392978332</v>
       </c>
       <c r="X43" t="n">
-        <v>878.6948361277766</v>
+        <v>1016.85392978332</v>
       </c>
       <c r="Y43" t="n">
-        <v>686.5854216598391</v>
+        <v>824.7445153153827</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551623</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H44" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277722</v>
+        <v>284.4401654074197</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.56914656307</v>
+        <v>618.259539097266</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811478</v>
+        <v>1069.293752345674</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483401</v>
+        <v>2047.844055175503</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542182</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232735</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.49719767968</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7679,19 +7679,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7710,43 +7710,43 @@
         <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939019</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193654</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320297</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454344</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008798</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426851</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>472.4728289383072</v>
+        <v>543.8866225476887</v>
       </c>
       <c r="C46" t="n">
-        <v>332.2198106859929</v>
+        <v>543.8866225476887</v>
       </c>
       <c r="D46" t="n">
-        <v>332.2198106859929</v>
+        <v>422.4531478109456</v>
       </c>
       <c r="E46" t="n">
-        <v>332.2198106859929</v>
+        <v>303.223218904145</v>
       </c>
       <c r="F46" t="n">
-        <v>332.2198106859929</v>
+        <v>303.223218904145</v>
       </c>
       <c r="G46" t="n">
-        <v>193.2001387363043</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="H46" t="n">
-        <v>164.2035469544566</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>168.796036593878</v>
+        <v>168.7960365938782</v>
       </c>
       <c r="K46" t="n">
-        <v>400.8955892413021</v>
+        <v>400.8955892413028</v>
       </c>
       <c r="L46" t="n">
-        <v>745.567757388346</v>
+        <v>745.5677573883471</v>
       </c>
       <c r="M46" t="n">
-        <v>1117.837172686442</v>
+        <v>1117.837172686444</v>
       </c>
       <c r="N46" t="n">
-        <v>1487.357919090855</v>
+        <v>1487.357919090857</v>
       </c>
       <c r="O46" t="n">
-        <v>1814.799887709816</v>
+        <v>1814.799887709818</v>
       </c>
       <c r="P46" t="n">
-        <v>2075.519757842023</v>
+        <v>2075.519757842026</v>
       </c>
       <c r="Q46" t="n">
-        <v>2181.242423693086</v>
+        <v>2181.242423693089</v>
       </c>
       <c r="R46" t="n">
-        <v>2120.095131126206</v>
+        <v>2120.095131126209</v>
       </c>
       <c r="S46" t="n">
-        <v>1957.092411628625</v>
+        <v>1957.092411628628</v>
       </c>
       <c r="T46" t="n">
-        <v>1764.008960873743</v>
+        <v>1764.008960873747</v>
       </c>
       <c r="U46" t="n">
-        <v>1503.589258674979</v>
+        <v>1503.589258674983</v>
       </c>
       <c r="V46" t="n">
-        <v>1277.587935144685</v>
+        <v>1349.001728754066</v>
       </c>
       <c r="W46" t="n">
-        <v>1016.853929783317</v>
+        <v>1088.267723392698</v>
       </c>
       <c r="X46" t="n">
-        <v>817.5475435608919</v>
+        <v>888.9613371702735</v>
       </c>
       <c r="Y46" t="n">
-        <v>625.4381290929543</v>
+        <v>696.8519227023359</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627881</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8693,16 +8693,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>132.9990175570125</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>96.13798426930725</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8924,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>67.53663776704252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>288.7672650676782</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9164,19 +9164,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>219.3344627260162</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>358.2849913921049</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,22 +9635,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>384.814589375506</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>246.454569480844</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>370.451600472953</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>172.4995987156035</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>67.53663776704263</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.822542117224657e-12</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10358,19 +10358,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>123.4719563470506</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>34.13957882094206</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10595,16 +10595,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>67.5366377670444</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.822542117224657e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>96.13798426930924</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11294,25 +11294,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>329.4296048068289</v>
       </c>
       <c r="O44" t="n">
-        <v>344.702583647695</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>16.14213605696621</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>0.6941762341246829</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>53.73645647354641</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>105.0742887270137</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>160.8159952958104</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>16.14213605696608</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>15.3949472728786</v>
       </c>
     </row>
     <row r="23">
@@ -24373,13 +24373,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>80.60854360518123</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>16.14213605696666</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.0742887270135</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>97.1551088680024</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24856,7 +24856,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>16.14213605696598</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>21.59472895491496</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>91.51251412534181</v>
       </c>
       <c r="D34" t="n">
-        <v>2.95166650824331</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>118.0376296177326</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G34" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>116.3586818854842</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I34" t="n">
-        <v>67.95608738100148</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>87.65205602145042</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>120.2191399893757</v>
       </c>
       <c r="E37" t="n">
-        <v>118.0376296177326</v>
+        <v>0.104123027990039</v>
       </c>
       <c r="F37" t="n">
         <v>117.0247149940946</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.8504880697912</v>
+        <v>71.92066851288354</v>
       </c>
       <c r="D40" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>66.83919756939187</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>117.0247149940946</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>129.2615363769695</v>
       </c>
       <c r="D43" t="n">
-        <v>58.77452875251625</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I43" t="n">
-        <v>67.95608738100147</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>60.53581964121069</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>197.3133223602005</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D46" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>117.0247149940946</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>87.65205602145505</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>70.6996556732841</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>652686.437408683</v>
+        <v>652686.4374086829</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>652686.437408683</v>
+        <v>652686.4374086829</v>
       </c>
     </row>
     <row r="10">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.681371069</v>
+      </c>
+      <c r="C2" t="n">
         <v>779989.6813710688</v>
-      </c>
-      <c r="C2" t="n">
-        <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710689</v>
@@ -26323,37 +26323,37 @@
         <v>754455.3950852678</v>
       </c>
       <c r="F2" t="n">
-        <v>754455.3950852675</v>
+        <v>754455.3950852681</v>
       </c>
       <c r="G2" t="n">
-        <v>754455.3950852684</v>
+        <v>754455.3950852683</v>
       </c>
       <c r="H2" t="n">
-        <v>754455.3950852684</v>
+        <v>754455.3950852683</v>
       </c>
       <c r="I2" t="n">
-        <v>754455.3950852681</v>
+        <v>754455.3950852677</v>
       </c>
       <c r="J2" t="n">
-        <v>754455.395085268</v>
+        <v>754455.3950852683</v>
       </c>
       <c r="K2" t="n">
-        <v>754455.3950852677</v>
+        <v>754455.3950852678</v>
       </c>
       <c r="L2" t="n">
         <v>769890.7966448725</v>
       </c>
       <c r="M2" t="n">
-        <v>769890.7966448726</v>
+        <v>769890.7966448728</v>
       </c>
       <c r="N2" t="n">
-        <v>769890.7966448725</v>
+        <v>769890.7966448721</v>
       </c>
       <c r="O2" t="n">
-        <v>769890.7966448725</v>
+        <v>769890.7966448724</v>
       </c>
       <c r="P2" t="n">
-        <v>769890.7966448725</v>
+        <v>769890.7966448724</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22717.06642306928</v>
+        <v>22717.06642306931</v>
       </c>
       <c r="M3" t="n">
         <v>129642.3148389448</v>
@@ -26424,40 +26424,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="F4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918989</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918992</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918996</v>
       </c>
       <c r="L4" t="n">
-        <v>27492.30103190629</v>
+        <v>27492.30103190632</v>
       </c>
       <c r="M4" t="n">
-        <v>27492.30103190627</v>
+        <v>27492.3010319063</v>
       </c>
       <c r="N4" t="n">
-        <v>27492.30103190624</v>
+        <v>27492.30103190631</v>
       </c>
       <c r="O4" t="n">
-        <v>27492.30103190629</v>
+        <v>27492.3010319063</v>
       </c>
       <c r="P4" t="n">
-        <v>27492.3010319064</v>
+        <v>27492.30103190631</v>
       </c>
     </row>
     <row r="5">
@@ -26494,7 +26494,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>98770.76957511491</v>
@@ -26509,7 +26509,7 @@
         <v>98770.76957511491</v>
       </c>
       <c r="P5" t="n">
-        <v>98770.76957511487</v>
+        <v>98770.76957511491</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-76185.96276401306</v>
+        <v>-76185.96276401292</v>
       </c>
       <c r="C6" t="n">
-        <v>513781.9164505317</v>
+        <v>513781.9164505315</v>
       </c>
       <c r="D6" t="n">
         <v>513781.9164505316</v>
       </c>
       <c r="E6" t="n">
-        <v>-87454.02948104255</v>
+        <v>-87521.22497126833</v>
       </c>
       <c r="F6" t="n">
-        <v>639923.3845123639</v>
+        <v>639856.1890221387</v>
       </c>
       <c r="G6" t="n">
-        <v>639923.3845123649</v>
+        <v>639856.1890221389</v>
       </c>
       <c r="H6" t="n">
-        <v>639923.3845123649</v>
+        <v>639856.1890221389</v>
       </c>
       <c r="I6" t="n">
-        <v>639923.3845123645</v>
+        <v>639856.1890221384</v>
       </c>
       <c r="J6" t="n">
-        <v>463500.1653197714</v>
+        <v>463432.9698295459</v>
       </c>
       <c r="K6" t="n">
-        <v>639923.3845123642</v>
+        <v>639856.1890221388</v>
       </c>
       <c r="L6" t="n">
-        <v>620910.659614782</v>
+        <v>620884.0836023446</v>
       </c>
       <c r="M6" t="n">
-        <v>513985.4111989066</v>
+        <v>513958.8351864694</v>
       </c>
       <c r="N6" t="n">
-        <v>643627.7260378513</v>
+        <v>643601.1500254135</v>
       </c>
       <c r="O6" t="n">
-        <v>643627.7260378513</v>
+        <v>643601.1500254138</v>
       </c>
       <c r="P6" t="n">
-        <v>643627.7260378528</v>
+        <v>643601.1500254138</v>
       </c>
     </row>
   </sheetData>
@@ -26713,13 +26713,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M2" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N2" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O2" t="n">
         <v>28.39633302883663</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.295573980133568e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41.35362898082678</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>23.9459416144033</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>11.99007165458445</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>320.3636408625134</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>44.47535211858298</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,10 +27673,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>83.12091415361539</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.83478528866331</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>375.9469818809428</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>11.20710234834337</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>120.1051426060689</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>146.6290191212929</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="C34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="D34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="E34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="F34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="G34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="H34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="I34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="J34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="K34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="L34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="P34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="R34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="S34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="T34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="U34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="V34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="W34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="X34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Y34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="C37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="D37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="E37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="F37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="G37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="H37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="I37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="J37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="K37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="L37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="P37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="R37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="S37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="T37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="U37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="V37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="W37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="X37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="C40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="D40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="E40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="F40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="G40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="H40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="I40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="J40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="K40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="L40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="P40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="R40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="S40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="T40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="U40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="V40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="W40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="X40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
     </row>
     <row r="41">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -32093,7 +32093,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32333,7 +32333,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32561,13 +32561,13 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H30" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q31" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H33" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026454</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q34" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H36" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q37" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H39" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q40" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026454</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681588</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844658</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974796</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953981</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003798</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623179</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574979</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095008</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099044</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P44" t="n">
-        <v>629.99498197464</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678168</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563563</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806931</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451116</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.350480948934527</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502561</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798527</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752241</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026511</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353149</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138785</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233463</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837912</v>
+        <v>609.647816683794</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970239</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002918</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905538</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238307</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898478</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462212</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430534</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311876</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742007</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297387</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702019</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098814</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316426</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883109</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023085995</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802164</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895877</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712197</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553029</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112278</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780292</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307146</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35413,16 +35413,16 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>685.300852969924</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>604.1909851575264</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
         <v>347.6333793934838</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>258.3236387357551</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>744.3573794600104</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>989.6487598248956</v>
@@ -35662,7 +35662,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
@@ -35741,7 +35741,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306621</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
         <v>347.6333793934838</v>
@@ -35884,19 +35884,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>771.6362981389277</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -35981,7 +35981,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>910.5868268050164</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,13 +36209,13 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36355,22 +36355,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>840.4047037678382</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>798.7564048937555</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>909.3727163031798</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407862</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>711.4207145458299</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248953</v>
       </c>
       <c r="O29" t="n">
-        <v>575.5896386552618</v>
+        <v>888.8531821509642</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407862</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427823</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230589</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>522.2339425664221</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597871</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.97474964190283</v>
+        <v>73.9747496419028</v>
       </c>
       <c r="K34" t="n">
-        <v>234.4439925731562</v>
+        <v>234.4439925731561</v>
       </c>
       <c r="L34" t="n">
-        <v>348.1537051990347</v>
+        <v>348.1537051990346</v>
       </c>
       <c r="M34" t="n">
         <v>376.0297124223204</v>
       </c>
       <c r="N34" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963766</v>
       </c>
       <c r="O34" t="n">
-        <v>330.7494632514764</v>
+        <v>330.7494632514763</v>
       </c>
       <c r="P34" t="n">
         <v>263.353404173947</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.7905715667303</v>
+        <v>106.7905715667302</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>224.9265797896545</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.336699126565</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427823</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230589</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>73.97474964190283</v>
       </c>
       <c r="K37" t="n">
-        <v>234.4439925731562</v>
+        <v>234.4439925731561</v>
       </c>
       <c r="L37" t="n">
         <v>348.1537051990347</v>
@@ -37476,13 +37476,13 @@
         <v>373.2532791963766</v>
       </c>
       <c r="O37" t="n">
-        <v>330.7494632514764</v>
+        <v>330.7494632514763</v>
       </c>
       <c r="P37" t="n">
         <v>263.353404173947</v>
       </c>
       <c r="Q37" t="n">
-        <v>106.7905715667303</v>
+        <v>106.7905715667302</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427823</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230589</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248953</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>466.2986239864159</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.97474964190286</v>
+        <v>73.9747496419028</v>
       </c>
       <c r="K40" t="n">
-        <v>234.4439925731562</v>
+        <v>234.4439925731561</v>
       </c>
       <c r="L40" t="n">
-        <v>348.1537051990347</v>
+        <v>348.1537051990346</v>
       </c>
       <c r="M40" t="n">
         <v>376.0297124223204</v>
       </c>
       <c r="N40" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963766</v>
       </c>
       <c r="O40" t="n">
-        <v>330.7494632514764</v>
+        <v>330.7494632514763</v>
       </c>
       <c r="P40" t="n">
         <v>263.353404173947</v>
       </c>
       <c r="Q40" t="n">
-        <v>106.7905715667303</v>
+        <v>106.7905715667302</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>286.9249852380216</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>661.336699126565</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427823</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597871</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.97474964190285</v>
+        <v>73.9747496419028</v>
       </c>
       <c r="K43" t="n">
-        <v>234.4439925731562</v>
+        <v>234.4439925731561</v>
       </c>
       <c r="L43" t="n">
         <v>348.1537051990347</v>
       </c>
       <c r="M43" t="n">
-        <v>376.0297124223205</v>
+        <v>376.0297124223204</v>
       </c>
       <c r="N43" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963766</v>
       </c>
       <c r="O43" t="n">
-        <v>330.7494632514764</v>
+        <v>330.7494632514763</v>
       </c>
       <c r="P43" t="n">
-        <v>263.3534041739471</v>
+        <v>263.353404173947</v>
       </c>
       <c r="Q43" t="n">
-        <v>106.7905715667303</v>
+        <v>106.7905715667302</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407856</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K44" t="n">
-        <v>661.336699126564</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923307</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302252</v>
+        <v>988.4346493230589</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129099</v>
+        <v>881.73144021974</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359126</v>
+        <v>888.8531821509642</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908531</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636232</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152067</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453598445</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609559</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340044</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013279</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N45" t="n">
-        <v>478.306104600458</v>
+        <v>478.3061046004607</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525794</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859615</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127265</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.97474964190258</v>
+        <v>73.9747496419028</v>
       </c>
       <c r="K46" t="n">
-        <v>234.4439925731557</v>
+        <v>234.4439925731561</v>
       </c>
       <c r="L46" t="n">
-        <v>348.1537051990341</v>
+        <v>348.1537051990347</v>
       </c>
       <c r="M46" t="n">
-        <v>376.0297124223198</v>
+        <v>376.0297124223204</v>
       </c>
       <c r="N46" t="n">
-        <v>373.2532791963761</v>
+        <v>373.2532791963766</v>
       </c>
       <c r="O46" t="n">
-        <v>330.7494632514758</v>
+        <v>330.7494632514763</v>
       </c>
       <c r="P46" t="n">
-        <v>263.3534041739466</v>
+        <v>263.353404173947</v>
       </c>
       <c r="Q46" t="n">
-        <v>106.7905715667299</v>
+        <v>106.7905715667302</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
